--- a/Docs/QlTroChoi (Revised).xlsx
+++ b/Docs/QlTroChoi (Revised).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniWin\QuanLyTroChoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniWin\QuanLyTroChoi\Src\trunk\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>stt</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Chau</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -700,12 +703,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+      <selection pane="topRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
     <col min="13" max="13" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,7 +765,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -799,7 +802,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>52</v>
@@ -826,7 +829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -863,7 +866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -898,7 +901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -933,7 +936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -963,7 +966,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -1022,7 +1025,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1056,8 +1059,11 @@
       <c r="N10" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1124,7 +1130,7 @@
         <v>43266</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="117.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="117.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
